--- a/fuentes/contenidos/grado11/guion03/Escaleta_LE_11_03_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion03/Escaleta_LE_11_03_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado11\guion03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\GRADO ONCE\GUION 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="246">
   <si>
     <t>Asignatura</t>
   </si>
@@ -665,6 +665,9 @@
     <t>Recurso M12A-01</t>
   </si>
   <si>
+    <t>Recurso M101AB-01</t>
+  </si>
+  <si>
     <t>Recurso M101AP-01</t>
   </si>
   <si>
@@ -759,9 +762,6 @@
   </si>
   <si>
     <t xml:space="preserve">DBA.12. Seis preguntas relacionadas con el desarrollo de la obra de Dante: La divina comedia , el contexto histórico, religioso y literario. </t>
-  </si>
-  <si>
-    <t>Recurso M102AB-01</t>
   </si>
 </sst>
 </file>
@@ -1034,34 +1034,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,6 +1083,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1409,126 +1409,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="30.265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.86328125" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" customWidth="1"/>
-    <col min="13" max="14" width="9.265625" customWidth="1"/>
-    <col min="15" max="15" width="37.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.59765625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.73046875" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:21" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="56"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
+    <row r="2" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="21" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P4" s="23" t="s">
         <v>19</v>
@@ -1646,7 +1646,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P5" s="26" t="s">
         <v>19</v>
@@ -1705,7 +1705,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>20</v>
@@ -1764,7 +1764,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>130</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H7" s="28">
         <v>5</v>
@@ -1793,7 +1793,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>20</v>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P7" s="26" t="s">
         <v>19</v>
@@ -1815,19 +1815,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T7" s="42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U7" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>32</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P8" s="23" t="s">
         <v>19</v>
@@ -1890,7 +1890,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>132</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H9" s="24">
         <v>7</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P9" s="26" t="s">
         <v>19</v>
@@ -1941,19 +1941,19 @@
         <v>6</v>
       </c>
       <c r="R9" s="41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T9" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="U9" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="U9" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H10" s="28">
         <v>8</v>
@@ -1980,7 +1980,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>20</v>
@@ -1993,7 +1993,7 @@
         <v>121</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>19</v>
@@ -2014,7 +2014,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
@@ -2061,19 +2061,19 @@
         <v>6</v>
       </c>
       <c r="R11" s="41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T11" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U11" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P13" s="26" t="s">
         <v>19</v>
@@ -2195,7 +2195,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P14" s="26" t="s">
         <v>19</v>
@@ -2242,25 +2242,21 @@
         <v>6</v>
       </c>
       <c r="R14" s="41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T14" s="42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U14" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>122</v>
-      </c>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="11" t="s">
         <v>123</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>165</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T15" s="35" t="s">
         <v>166</v>
@@ -2311,7 +2307,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>16</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>121</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P16" s="26" t="s">
         <v>19</v>
@@ -2372,7 +2368,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
@@ -2429,7 +2425,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>20</v>
@@ -2469,7 +2465,7 @@
         <v>43</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P18" s="26" t="s">
         <v>19</v>
@@ -2490,7 +2486,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>16</v>
       </c>
@@ -2508,7 +2504,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H19" s="28">
         <v>17</v>
@@ -2530,7 +2526,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P19" s="26" t="s">
         <v>19</v>
@@ -2551,7 +2547,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
@@ -2612,7 +2608,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>16</v>
       </c>
@@ -2652,7 +2648,7 @@
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P21" s="26" t="s">
         <v>19</v>
@@ -2661,19 +2657,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S21" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T21" s="42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U21" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>16</v>
       </c>
@@ -2734,7 +2730,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>16</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>20</v>
@@ -2772,7 +2768,7 @@
         <v>120</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P23" s="26" t="s">
         <v>19</v>
@@ -2787,13 +2783,13 @@
         <v>197</v>
       </c>
       <c r="T23" s="39" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="U23" s="37" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>16</v>
       </c>
@@ -2838,7 +2834,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2893,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>16</v>
       </c>
@@ -2950,378 +2946,384 @@
         <v>197</v>
       </c>
       <c r="T26" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U26" s="37" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3336,12 +3338,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3392,27 +3388,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="2"/>
-    <col min="14" max="14" width="24.265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="2"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3429,7 +3425,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3453,7 +3449,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3472,7 +3468,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3491,7 +3487,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3507,7 +3503,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3524,7 +3520,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -3541,7 +3537,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3556,7 +3552,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3571,7 +3567,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3586,7 +3582,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3601,7 +3597,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3616,7 +3612,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3631,7 +3627,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3646,7 +3642,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3661,7 +3657,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3676,7 +3672,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -3690,7 +3686,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -3704,7 +3700,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -3718,7 +3714,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -3732,7 +3728,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3747,7 +3743,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3762,7 +3758,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3777,7 +3773,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3792,7 +3788,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3807,7 +3803,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3822,7 +3818,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3837,7 +3833,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3852,7 +3848,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3867,7 +3863,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3882,7 +3878,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3897,7 +3893,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3912,7 +3908,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3927,7 +3923,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3942,7 +3938,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3957,7 +3953,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3972,7 +3968,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3987,7 +3983,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4002,7 +3998,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4017,7 +4013,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -4032,7 +4028,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -4047,7 +4043,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4062,7 +4058,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -4077,7 +4073,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -4092,7 +4088,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -4107,7 +4103,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -4122,7 +4118,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -4137,7 +4133,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4152,7 +4148,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4164,7 +4160,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4176,7 +4172,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4189,7 +4185,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4202,7 +4198,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4215,7 +4211,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4228,7 +4224,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4241,7 +4237,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4254,7 +4250,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4267,7 +4263,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4280,7 +4276,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4293,7 +4289,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4306,7 +4302,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4319,7 +4315,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4332,7 +4328,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4345,7 +4341,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4358,7 +4354,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4371,7 +4367,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4384,7 +4380,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4397,7 +4393,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4410,7 +4406,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4423,7 +4419,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4436,7 +4432,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4450,7 +4446,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4464,7 +4460,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4478,7 +4474,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4492,7 +4488,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4506,7 +4502,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4520,7 +4516,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4534,7 +4530,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4548,7 +4544,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4562,7 +4558,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4576,7 +4572,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4590,7 +4586,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4604,7 +4600,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4618,7 +4614,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4632,7 +4628,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4646,7 +4642,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4660,7 +4656,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4674,7 +4670,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4688,7 +4684,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4702,7 +4698,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4716,7 +4712,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4730,7 +4726,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4744,7 +4740,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4758,7 +4754,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4772,7 +4768,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4786,7 +4782,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4800,7 +4796,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4814,7 +4810,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4828,7 +4824,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4842,7 +4838,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4856,7 +4852,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4870,7 +4866,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4884,7 +4880,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4898,7 +4894,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4912,7 +4908,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4926,7 +4922,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4940,7 +4936,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4954,7 +4950,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4968,7 +4964,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4982,7 +4978,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4996,7 +4992,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5010,7 +5006,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5024,7 +5020,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5038,7 +5034,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5052,7 +5048,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5066,7 +5062,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5080,7 +5076,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5094,7 +5090,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5108,7 +5104,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5122,7 +5118,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5136,7 +5132,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5150,7 +5146,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5164,7 +5160,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5178,7 +5174,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5192,7 +5188,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5206,7 +5202,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5220,7 +5216,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5234,7 +5230,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5248,7 +5244,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5262,7 +5258,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5276,7 +5272,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5290,7 +5286,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5304,7 +5300,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado11/guion03/Escaleta_LE_11_03_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion03/Escaleta_LE_11_03_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\GRADO ONCE\GUION 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\GITHUB2015\Lenguaje\fuentes\contenidos\grado11\guion03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1034,16 +1034,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1083,24 +1101,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1409,9 +1409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,94 +1439,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="21" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3318,12 +3318,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3338,6 +3332,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
